--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Application Delivery</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -2112,7 +2112,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2202,7 +2202,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2294,7 +2294,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2386,7 +2386,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2432,7 +2432,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2478,7 +2478,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2570,7 +2570,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -6823,7 +6823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6934,11 +6934,6 @@
           <t>Open</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Identity and Access Management</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>There is an action item associated to this check</t>
@@ -6961,11 +6956,6 @@
           <t>Fulfilled</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>This check has been verified, and there are no further action items associated to it</t>
@@ -6983,11 +6973,6 @@
           <t>Not required</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recommendation understood, but not needed by current requirements</t>
@@ -7005,11 +6990,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Not applicable for current design</t>
@@ -7018,27 +6998,6 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Resource Organization</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Governance</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - App Gateway</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Load Balancer</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - App Gateway</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Your application gateways should be deployed in subnets with IP prefixes equal or larger than /26</t>
+          <t>Your Application Gateways v2 should be deployed in subnets with IP prefixes equal or larger than /24</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - App Gateway</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - App Gateway</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - App Gateway</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
+          <t>Configure autoscaling with a minimum amount of instances of two.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,19 +1432,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - App Gateway</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Deploy Application Gateway across Availability Zones</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1482,19 +1482,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1510,18 +1510,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1544,7 +1544,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1565,13 +1565,13 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Microsoft Entra ID Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,19 +1582,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1610,18 +1610,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Traffic Manager</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1632,19 +1632,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1665,13 +1665,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>If users only need access to internal applications, has Microsoft Entra ID Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,15 +1682,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I20" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1711,13 +1715,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1728,15 +1732,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1752,12 +1760,12 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1774,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1782,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1798,18 +1806,18 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1820,7 +1828,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1828,7 +1836,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1844,18 +1852,18 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1866,7 +1874,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1874,7 +1882,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1890,12 +1898,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1912,7 +1920,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1920,7 +1928,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1936,18 +1944,18 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1958,7 +1966,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1966,7 +1974,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1982,18 +1990,18 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2004,14 +2012,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2027,18 +2035,18 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Load Balancer</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2049,14 +2057,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2067,17 +2075,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2094,14 +2102,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2117,12 +2125,12 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2139,14 +2147,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,12 +2170,12 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2184,14 +2192,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2207,18 +2215,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2229,7 +2237,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2237,7 +2245,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2253,12 +2261,12 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2275,7 +2283,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2283,7 +2291,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2299,12 +2307,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2321,7 +2329,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2329,7 +2337,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2345,12 +2353,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2367,7 +2375,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2375,7 +2383,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2391,18 +2399,18 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2413,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2421,7 +2429,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2437,18 +2445,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2459,7 +2467,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2467,7 +2475,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2483,12 +2491,12 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2505,7 +2513,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2513,7 +2521,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2529,18 +2537,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2551,7 +2559,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2559,7 +2567,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2575,12 +2583,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2597,7 +2605,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2605,7 +2613,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2614,34 +2622,92 @@
       <c r="P40" s="25" t="n"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="21" t="n"/>
-      <c r="C41" s="21" t="n"/>
+      <c r="A41" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B41" s="21" t="inlineStr">
+        <is>
+          <t>App delivery - Front Door</t>
+        </is>
+      </c>
+      <c r="C41" s="21" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="n"/>
+      <c r="H41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
-      <c r="L41" s="25" t="n"/>
+      <c r="L41" s="25" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M41" s="25" t="n"/>
       <c r="N41" s="25" t="n"/>
       <c r="O41" s="25" t="n"/>
       <c r="P41" s="25" t="n"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="21" t="n"/>
-      <c r="C42" s="21" t="n"/>
+      <c r="A42" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>App delivery - Front Door</t>
+        </is>
+      </c>
+      <c r="C42" s="21" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D42" s="21" t="n"/>
-      <c r="E42" s="21" t="n"/>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="n"/>
+      <c r="H42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
-      <c r="L42" s="25" t="n"/>
+      <c r="L42" s="25" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M42" s="25" t="n"/>
       <c r="N42" s="25" t="n"/>
       <c r="O42" s="25" t="n"/>
@@ -6808,7 +6874,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F41" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -1144,7 +1144,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>App delivery - App Gateway</t>
+          <t>App delivery - Load Balancer</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Your Application Gateways v2 should be deployed in subnets with IP prefixes equal or larger than /24</t>
+          <t>Ensure your Load Balancers frontend IP addresses are zone-redundant (unless you require zonal frontends).</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,19 +1278,15 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1311,14 +1307,10 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
-        </is>
-      </c>
+          <t>Your Application Gateways v2 should be deployed in subnets with IP prefixes equal or larger than /24</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1332,7 +1324,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1344,7 +1336,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1365,10 +1357,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1387,14 +1383,14 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1415,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Configure autoscaling with a minimum amount of instances of two.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1465,7 +1461,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Deploy Application Gateway across Availability Zones</t>
+          <t>Configure autoscaling with a minimum amount of instances of two.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1482,7 +1478,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -1494,7 +1490,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1510,12 +1506,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>App delivery - App Gateway</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
+          <t>Deploy Application Gateway across Availability Zones</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1532,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1560,12 +1556,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1582,7 +1578,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
@@ -1594,7 +1590,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1610,18 +1606,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Traffic Manager</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1632,7 +1628,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
@@ -1644,7 +1640,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1660,18 +1656,18 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App delivery - Traffic Manager</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Microsoft Entra ID Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1715,13 +1711,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>If users only need access to internal applications, has Microsoft Entra ID Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1737,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1760,18 +1756,18 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1782,15 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,7 +1828,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1836,7 +1836,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1874,7 +1874,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1882,7 +1882,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1903,13 +1903,13 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1920,7 +1920,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1928,7 +1928,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1949,13 +1949,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1966,7 +1966,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1974,7 +1974,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1995,13 +1995,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2012,14 +2012,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2035,18 +2035,18 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Load Balancer</t>
+          <t>App delivery - Front Door</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2057,14 +2057,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2080,12 +2080,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>App delivery - Load Balancer</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2102,14 +2102,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2130,13 +2130,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2147,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2175,13 +2175,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2192,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2220,13 +2220,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2237,7 +2237,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2245,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2266,13 +2266,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2283,7 +2283,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2291,7 +2291,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2337,7 +2337,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2375,7 +2375,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2383,7 +2383,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2467,7 +2467,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2521,7 +2521,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2559,7 +2559,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2567,7 +2567,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2605,7 +2605,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2613,7 +2613,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2634,13 +2634,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2651,7 +2651,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2659,7 +2659,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2680,13 +2680,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2697,7 +2697,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2705,7 +2705,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2714,17 +2714,46 @@
       <c r="P42" s="25" t="n"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="21" t="n"/>
-      <c r="C43" s="21" t="n"/>
+      <c r="A43" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B43" s="21" t="inlineStr">
+        <is>
+          <t>App delivery - Front Door</t>
+        </is>
+      </c>
+      <c r="C43" s="21" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
-      <c r="L43" s="25" t="n"/>
+      <c r="L43" s="25" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M43" s="25" t="n"/>
       <c r="N43" s="25" t="n"/>
       <c r="O43" s="25" t="n"/>
@@ -6874,7 +6903,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>App delivery - App Gateway</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Load Balancer</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Load Balancer</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>App delivery - App Gateway</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>App delivery - App Gateway</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>App delivery - App Gateway</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>App delivery - App Gateway</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>App delivery - App Gateway</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Traffic Manager</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Load Balancer</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>App delivery - Front Door</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>Deploy your WAF policy for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new rule set version and gain additional protection.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Enable request body inspection feature enabled in Azure Front Door WAF policy.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Enable the Azure Front Door WAF bot protection rule set. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Use the latest Azure Front Door WAF rule set version. Rule set updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>If you are not expecting traffic from all geographical regions, use geo-filters to block traffic from non-expected countries.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2760,263 +2760,727 @@
       <c r="P43" s="25" t="n"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="21" t="n"/>
-      <c r="C44" s="21" t="n"/>
+      <c r="A44" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B44" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C44" s="21" t="inlineStr">
+        <is>
+          <t>Enable the Azure Application Gateway WAF bot protection rule set The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+        </is>
+      </c>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
-      <c r="L44" s="25" t="n"/>
+      <c r="L44" s="25" t="inlineStr">
+        <is>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+        </is>
+      </c>
       <c r="M44" s="25" t="n"/>
       <c r="N44" s="25" t="n"/>
       <c r="O44" s="25" t="n"/>
       <c r="P44" s="25" t="n"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="21" t="n"/>
-      <c r="C45" s="21" t="n"/>
+      <c r="A45" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B45" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C45" s="21" t="inlineStr">
+        <is>
+          <t>Enable request body inspection feature enabled in Azure Application Gateway WAF policy.</t>
+        </is>
+      </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
-      <c r="L45" s="25" t="n"/>
+      <c r="L45" s="25" t="inlineStr">
+        <is>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+        </is>
+      </c>
       <c r="M45" s="25" t="n"/>
       <c r="N45" s="25" t="n"/>
       <c r="O45" s="25" t="n"/>
       <c r="P45" s="25" t="n"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="21" t="n"/>
-      <c r="C46" s="21" t="n"/>
+      <c r="A46" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B46" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C46" s="21" t="inlineStr">
+        <is>
+          <t>Tune the Azure Application Gateway WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="25" t="n"/>
+      <c r="L46" s="25" t="inlineStr">
+        <is>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+        </is>
+      </c>
       <c r="M46" s="25" t="n"/>
       <c r="N46" s="25" t="n"/>
       <c r="O46" s="25" t="n"/>
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Deploy your WAF policy for Application Gateway in 'Prevention' mode.</t>
+        </is>
+      </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Application Gateway WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Application Gateway WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>If you are not expecting traffic from all geographical regions, use geo-filters to block traffic from non-expected countries.</t>
+        </is>
+      </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Application Gateway WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Application Gateway WAF rule set version. Rule set updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Application Gateway WAF logs.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF logs.</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Send Azure Application Gateway WAF logs to Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door WAF logs to Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>Define your Azure Application Gateway WAF configuration as code. By using code, you can more easily adopt new rule set version and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>Use WAF Policies instead of the legacy WAF configuration.</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>Filter inbound traffic in the backends so that they only accept connections from the Application Gateway subnet, for example with NSGs.</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -6903,7 +7367,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -3487,16 +3487,45 @@
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="21" t="n"/>
-      <c r="C60" s="21" t="n"/>
+      <c r="A60" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>Make sure your origins only take traffic from your Azure Front Door instance.</t>
+        </is>
+      </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="n"/>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/frontdoor/origin-security?tabs=app-service-functions</t>
+        </is>
+      </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="n"/>
+      <c r="L60" s="25" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
@@ -7367,7 +7396,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F61" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -3487,65 +3487,181 @@
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="21" t="n"/>
-      <c r="C60" s="21" t="n"/>
+      <c r="A60" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>Make sure your origins only take traffic from your Azure Front Door instance.</t>
+        </is>
+      </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="n"/>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/origin-security?tabs=app-service-functions</t>
+        </is>
+      </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="n"/>
+      <c r="L60" s="25" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
       <c r="P60" s="25" t="n"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="n"/>
-      <c r="B61" s="21" t="n"/>
-      <c r="C61" s="21" t="n"/>
+      <c r="A61" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C61" s="21" t="inlineStr">
+        <is>
+          <t>You should encrypt traffic to the backend servers.</t>
+        </is>
+      </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="25" t="n"/>
+      <c r="L61" s="25" t="inlineStr">
+        <is>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+        </is>
+      </c>
       <c r="M61" s="25" t="n"/>
       <c r="N61" s="25" t="n"/>
       <c r="O61" s="25" t="n"/>
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="n"/>
-      <c r="B62" s="21" t="n"/>
-      <c r="C62" s="21" t="n"/>
+      <c r="A62" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B62" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C62" s="21" t="inlineStr">
+        <is>
+          <t>You should use a Web Application Firewall.</t>
+        </is>
+      </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="25" t="n"/>
+      <c r="L62" s="25" t="inlineStr">
+        <is>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+        </is>
+      </c>
       <c r="M62" s="25" t="n"/>
       <c r="N62" s="25" t="n"/>
       <c r="O62" s="25" t="n"/>
       <c r="P62" s="25" t="n"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="21" t="n"/>
-      <c r="B63" s="21" t="n"/>
-      <c r="C63" s="21" t="n"/>
+      <c r="A63" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B63" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C63" s="21" t="inlineStr">
+        <is>
+          <t>Redirect HTTP to HTTPS</t>
+        </is>
+      </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="n"/>
+      <c r="H63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
+        </is>
+      </c>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="25" t="n"/>
+      <c r="L63" s="25" t="inlineStr">
+        <is>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+        </is>
+      </c>
       <c r="M63" s="25" t="n"/>
       <c r="N63" s="25" t="n"/>
       <c r="O63" s="25" t="n"/>
@@ -7367,7 +7483,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -3668,152 +3668,413 @@
       <c r="P63" s="25" t="n"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="21" t="n"/>
-      <c r="B64" s="21" t="n"/>
-      <c r="C64" s="21" t="n"/>
+      <c r="A64" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B64" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C64" s="21" t="inlineStr">
+        <is>
+          <t>Use gateway-managed cookies to direct traffic from a user session to the same server for processing</t>
+        </is>
+      </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="n"/>
+      <c r="H64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
+        </is>
+      </c>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
-      <c r="L64" s="25" t="n"/>
+      <c r="L64" s="25" t="inlineStr">
+        <is>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+        </is>
+      </c>
       <c r="M64" s="25" t="n"/>
       <c r="N64" s="25" t="n"/>
       <c r="O64" s="25" t="n"/>
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="n"/>
-      <c r="B65" s="21" t="n"/>
-      <c r="C65" s="21" t="n"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B65" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C65" s="21" t="inlineStr">
+        <is>
+          <t>Enable connection draining during planned service updates to prevent connection loss to existing membrs of the backend pool</t>
+        </is>
+      </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="n"/>
+      <c r="H65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
+        </is>
+      </c>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="25" t="n"/>
+      <c r="L65" s="25" t="inlineStr">
+        <is>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+        </is>
+      </c>
       <c r="M65" s="25" t="n"/>
       <c r="N65" s="25" t="n"/>
       <c r="O65" s="25" t="n"/>
       <c r="P65" s="25" t="n"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="21" t="n"/>
-      <c r="B66" s="21" t="n"/>
-      <c r="C66" s="21" t="n"/>
+      <c r="A66" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B66" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C66" s="21" t="inlineStr">
+        <is>
+          <t>Create custom error pages to display a personalized user experience</t>
+        </is>
+      </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="25" t="n"/>
+      <c r="L66" s="25" t="inlineStr">
+        <is>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+        </is>
+      </c>
       <c r="M66" s="25" t="n"/>
       <c r="N66" s="25" t="n"/>
       <c r="O66" s="25" t="n"/>
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="n"/>
-      <c r="B67" s="21" t="n"/>
-      <c r="C67" s="21" t="n"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B67" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C67" s="21" t="inlineStr">
+        <is>
+          <t>Edit HTTP requests and response headers for easier routing and information exchange between the client and server</t>
+        </is>
+      </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="25" t="n"/>
+      <c r="L67" s="25" t="inlineStr">
+        <is>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+        </is>
+      </c>
       <c r="M67" s="25" t="n"/>
       <c r="N67" s="25" t="n"/>
       <c r="O67" s="25" t="n"/>
       <c r="P67" s="25" t="n"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="21" t="n"/>
-      <c r="B68" s="21" t="n"/>
-      <c r="C68" s="21" t="n"/>
+      <c r="A68" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B68" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C68" s="21" t="inlineStr">
+        <is>
+          <t>Configure Front Door to optimize global web traffic routing and top-tier end-user performance, and reliability through quick global failover</t>
+        </is>
+      </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="25" t="n"/>
+      <c r="L68" s="25" t="inlineStr">
+        <is>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+        </is>
+      </c>
       <c r="M68" s="25" t="n"/>
       <c r="N68" s="25" t="n"/>
       <c r="O68" s="25" t="n"/>
       <c r="P68" s="25" t="n"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="21" t="n"/>
-      <c r="B69" s="21" t="n"/>
-      <c r="C69" s="21" t="n"/>
+      <c r="A69" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B69" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C69" s="21" t="inlineStr">
+        <is>
+          <t>Use transport layer load balancing</t>
+        </is>
+      </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="n"/>
+      <c r="H69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="25" t="n"/>
+      <c r="L69" s="25" t="inlineStr">
+        <is>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+        </is>
+      </c>
       <c r="M69" s="25" t="n"/>
       <c r="N69" s="25" t="n"/>
       <c r="O69" s="25" t="n"/>
       <c r="P69" s="25" t="n"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="21" t="n"/>
-      <c r="B70" s="21" t="n"/>
-      <c r="C70" s="21" t="n"/>
+      <c r="A70" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B70" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C70" s="21" t="inlineStr">
+        <is>
+          <t>Configure routing based on host or domain name for multiple web applications on a single gateway</t>
+        </is>
+      </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
-      <c r="L70" s="25" t="n"/>
+      <c r="L70" s="25" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M70" s="25" t="n"/>
       <c r="N70" s="25" t="n"/>
       <c r="O70" s="25" t="n"/>
       <c r="P70" s="25" t="n"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="21" t="n"/>
-      <c r="B71" s="21" t="n"/>
-      <c r="C71" s="21" t="n"/>
+      <c r="A71" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B71" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C71" s="21" t="inlineStr">
+        <is>
+          <t>Centralize SSL certificate management to reduce encryption and decryption overhead from a backend server farm</t>
+        </is>
+      </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="n"/>
+      <c r="H71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
+        </is>
+      </c>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="25" t="n"/>
+      <c r="L71" s="25" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M71" s="25" t="n"/>
       <c r="N71" s="25" t="n"/>
       <c r="O71" s="25" t="n"/>
       <c r="P71" s="25" t="n"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="21" t="n"/>
-      <c r="B72" s="21" t="n"/>
-      <c r="C72" s="21" t="n"/>
+      <c r="A72" s="21" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B72" s="21" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="C72" s="21" t="inlineStr">
+        <is>
+          <t>Use Application Gateway for native support for WebSocket and HTTP/2 protocols</t>
+        </is>
+      </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
+        </is>
+      </c>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="25" t="n"/>
+      <c r="L72" s="25" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M72" s="25" t="n"/>
       <c r="N72" s="25" t="n"/>
       <c r="O72" s="25" t="n"/>
@@ -7483,7 +7744,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF policy for Front Door in 'Prevention' mode.</t>
+          <t>Deploy your WAF policy for Front Door in 'Prevention' mode' so that Web Application Firewall takes appropriate action to allow or deny traffic.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Tune the Azure Front Door WAF for your workload by configuring the WAF in Detection mode to reduce and fix false positive detections.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Application Gateway WAF bot protection rule set The bot rules detect good and bad bots.</t>
+          <t>Enable the Azure Application Gateway WAF bot protection rule set. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Application Gateway WAF for your workload. Reduce false positive detections.</t>
+          <t>Tune the Azure Application Gateway WAF in detection mode for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Enable connection draining during planned service updates to prevent connection loss to existing membrs of the backend pool</t>
+          <t>Enable connection draining during planned service updates to prevent connection loss to existing members of the backend pool</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1110,12 +1114,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Ensure you are using Application Gateway v2 SKU</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1136,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -1144,7 +1148,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1160,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Ensure you are using Application Gateway v2 SKU</t>
+          <t>Ensure you are using the Standard SKU for your Azure Load Balancers</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1182,19 +1186,15 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Ensure you are using the Standard SKU for your Azure Load Balancers</t>
+          <t>Ensure your Load Balancers frontend IP addresses are zone-redundant (unless you require zonal frontends).</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1240,7 +1240,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Ensure your Load Balancers frontend IP addresses are zone-redundant (unless you require zonal frontends).</t>
+          <t>Your Application Gateways v2 should be deployed in subnets with IP prefixes equal or larger than /24</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,15 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1307,10 +1311,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Your Application Gateways v2 should be deployed in subnets with IP prefixes equal or larger than /24</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1324,7 +1332,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1336,7 +1344,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1357,14 +1365,10 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
-        </is>
-      </c>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1383,14 +1387,14 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1411,7 +1415,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Configure autoscaling with a minimum amount of instances of two.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1428,19 +1432,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1461,7 +1465,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Configure autoscaling with a minimum amount of instances of two.</t>
+          <t>Deploy Application Gateway across Availability Zones</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1478,7 +1482,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -1490,7 +1494,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1506,12 +1510,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Deploy Application Gateway across Availability Zones</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1528,19 +1532,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1556,18 +1560,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1590,7 +1594,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1611,13 +1615,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>If users only need access to internal applications, has Microsoft Entra ID Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1628,19 +1632,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1656,18 +1660,18 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1678,19 +1682,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1706,18 +1710,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Microsoft Entra ID Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1728,19 +1732,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1756,18 +1756,18 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>Enable the Azure Application Gateway WAF bot protection rule set. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1778,19 +1778,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1806,12 +1802,12 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF policy for Front Door in 'Prevention' mode' so that Web Application Firewall takes appropriate action to allow or deny traffic.</t>
+          <t>Ensure if request body inspection feature is enabled in Azure Application Gateway WAF policy.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,7 +1824,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1836,7 +1832,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1852,12 +1848,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Tune the Azure Application Gateway WAF in detection mode for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1874,7 +1870,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1882,7 +1878,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1898,12 +1894,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Deploy your WAF policy for Application Gateway in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1928,7 +1924,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1944,18 +1940,18 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>Add rate limiting to the Azure Application Gateway WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1966,7 +1962,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1974,7 +1970,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1990,12 +1986,12 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Application Gateway WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2012,14 +2008,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2035,12 +2031,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>If you are not expecting traffic from all geographical regions, use geo-filters to block traffic from non-expected countries.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2057,14 +2053,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2080,18 +2076,18 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Application Gateway WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2102,14 +2098,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2125,18 +2121,18 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Use the latest Azure Application Gateway WAF rule set version. Rule set updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2143,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2170,12 +2166,12 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new rule set version and gain additional protection.</t>
+          <t>Add diagnostic settings to save your Azure Application Gateway WAF logs.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2192,14 +2188,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2215,18 +2211,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Send Azure Application Gateway WAF logs to Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2237,7 +2233,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2241,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,12 +2257,12 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Define your Azure Application Gateway WAF configuration as code. By using code, you can more easily adopt new rule set version and gain additional protection.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2283,7 +2279,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2291,7 +2287,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2307,18 +2303,18 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use WAF Policies instead of the legacy WAF configuration.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2329,7 +2325,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2337,7 +2333,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2353,18 +2349,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload by configuring the WAF in Detection mode to reduce and fix false positive detections.</t>
+          <t>Filter inbound traffic in the backends so that they only accept connections from the Application Gateway subnet, for example with NSGs.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2375,7 +2371,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2383,7 +2379,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2399,12 +2395,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Enable request body inspection feature enabled in Azure Front Door WAF policy.</t>
+          <t>You should encrypt traffic to the backend servers.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2417,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2429,7 +2425,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2445,12 +2441,12 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>You should use a Web Application Firewall.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2467,7 +2463,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2475,7 +2471,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2491,18 +2487,18 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot protection rule set. The bot rules detect good and bad bots.</t>
+          <t>Redirect HTTP to HTTPS</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2513,7 +2509,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2521,7 +2517,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2537,12 +2533,12 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF rule set version. Rule set updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Use gateway-managed cookies to direct traffic from a user session to the same server for processing</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2559,7 +2555,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2567,7 +2563,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2583,18 +2579,18 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Enable connection draining during planned service updates to prevent connection loss to existing members of the backend pool</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2605,7 +2601,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2613,7 +2609,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2629,18 +2625,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Create custom error pages to display a personalized user experience</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2651,7 +2647,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2659,7 +2655,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2675,18 +2671,18 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>If you are not expecting traffic from all geographical regions, use geo-filters to block traffic from non-expected countries.</t>
+          <t>Edit HTTP requests and response headers for easier routing and information exchange between the client and server</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2697,7 +2693,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2705,7 +2701,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2721,12 +2717,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Configure Front Door to optimize global web traffic routing and top-tier end-user performance, and reliability through quick global failover</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2743,7 +2739,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2751,7 +2747,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2772,13 +2768,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Application Gateway WAF bot protection rule set. The bot rules detect good and bad bots.</t>
+          <t>Use transport layer load balancing</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2789,7 +2785,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2797,7 +2793,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2818,13 +2814,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Enable request body inspection feature enabled in Azure Application Gateway WAF policy.</t>
+          <t>Configure routing based on host or domain name for multiple web applications on a single gateway</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2835,14 +2831,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2863,13 +2859,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Application Gateway WAF in detection mode for your workload. Reduce false positive detections.</t>
+          <t>Centralize SSL certificate management to reduce encryption and decryption overhead from a backend server farm</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2880,7 +2876,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2888,7 +2884,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2909,13 +2905,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF policy for Application Gateway in 'Prevention' mode.</t>
+          <t>Use Application Gateway for native support for WebSocket and HTTP/2 protocols</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2926,7 +2922,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2934,7 +2930,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2943,1138 +2939,413 @@
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B48" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C48" s="21" t="inlineStr">
-        <is>
-          <t>Add rate limiting to the Azure Application Gateway WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
-        </is>
-      </c>
+      <c r="A48" s="21" t="n"/>
+      <c r="B48" s="21" t="n"/>
+      <c r="C48" s="21" t="n"/>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E48" s="21" t="n"/>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="inlineStr">
-        <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
-        </is>
-      </c>
+      <c r="L48" s="25" t="n"/>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B49" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C49" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Use a high threshold for Azure Application Gateway WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
-        </is>
-      </c>
+      <c r="A49" s="21" t="n"/>
+      <c r="B49" s="21" t="n"/>
+      <c r="C49" s="21" t="n"/>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E49" s="21" t="n"/>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="inlineStr">
-        <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
-        </is>
-      </c>
+      <c r="L49" s="25" t="n"/>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B50" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>If you are not expecting traffic from all geographical regions, use geo-filters to block traffic from non-expected countries.</t>
-        </is>
-      </c>
+      <c r="A50" s="21" t="n"/>
+      <c r="B50" s="21" t="n"/>
+      <c r="C50" s="21" t="n"/>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E50" s="21" t="n"/>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="inlineStr">
-        <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
-        </is>
-      </c>
+      <c r="L50" s="25" t="n"/>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B51" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C51" s="21" t="inlineStr">
-        <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Application Gateway WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
-        </is>
-      </c>
+      <c r="A51" s="21" t="n"/>
+      <c r="B51" s="21" t="n"/>
+      <c r="C51" s="21" t="n"/>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E51" s="21" t="n"/>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="inlineStr">
-        <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
-        </is>
-      </c>
+      <c r="L51" s="25" t="n"/>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B52" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C52" s="21" t="inlineStr">
-        <is>
-          <t>Use the latest Azure Application Gateway WAF rule set version. Rule set updates are regularly updated to take account of the current threat landscape.</t>
-        </is>
-      </c>
+      <c r="A52" s="21" t="n"/>
+      <c r="B52" s="21" t="n"/>
+      <c r="C52" s="21" t="n"/>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E52" s="21" t="n"/>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="inlineStr">
-        <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
-        </is>
-      </c>
+      <c r="L52" s="25" t="n"/>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B53" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>Add diagnostic settings to save your Azure Application Gateway WAF logs.</t>
-        </is>
-      </c>
+      <c r="A53" s="21" t="n"/>
+      <c r="B53" s="21" t="n"/>
+      <c r="C53" s="21" t="n"/>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E53" s="21" t="n"/>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="inlineStr">
-        <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
-        </is>
-      </c>
+      <c r="L53" s="25" t="n"/>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B54" s="21" t="inlineStr">
-        <is>
-          <t>Front Door</t>
-        </is>
-      </c>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF logs.</t>
-        </is>
-      </c>
+      <c r="A54" s="21" t="n"/>
+      <c r="B54" s="21" t="n"/>
+      <c r="C54" s="21" t="n"/>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E54" s="21" t="n"/>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="inlineStr">
-        <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
-        </is>
-      </c>
+      <c r="L54" s="25" t="n"/>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B55" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C55" s="21" t="inlineStr">
-        <is>
-          <t>Send Azure Application Gateway WAF logs to Microsoft Sentinel.</t>
-        </is>
-      </c>
+      <c r="A55" s="21" t="n"/>
+      <c r="B55" s="21" t="n"/>
+      <c r="C55" s="21" t="n"/>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E55" s="21" t="n"/>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="inlineStr">
-        <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
-        </is>
-      </c>
+      <c r="L55" s="25" t="n"/>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B56" s="21" t="inlineStr">
-        <is>
-          <t>Front Door</t>
-        </is>
-      </c>
-      <c r="C56" s="21" t="inlineStr">
-        <is>
-          <t>Send Azure Front Door WAF logs to Microsoft Sentinel.</t>
-        </is>
-      </c>
+      <c r="A56" s="21" t="n"/>
+      <c r="B56" s="21" t="n"/>
+      <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E56" s="21" t="n"/>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="inlineStr">
-        <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
-        </is>
-      </c>
+      <c r="L56" s="25" t="n"/>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B57" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C57" s="21" t="inlineStr">
-        <is>
-          <t>Define your Azure Application Gateway WAF configuration as code. By using code, you can more easily adopt new rule set version and gain additional protection.</t>
-        </is>
-      </c>
+      <c r="A57" s="21" t="n"/>
+      <c r="B57" s="21" t="n"/>
+      <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E57" s="21" t="n"/>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="inlineStr">
-        <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
-        </is>
-      </c>
+      <c r="L57" s="25" t="n"/>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B58" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C58" s="21" t="inlineStr">
-        <is>
-          <t>Use WAF Policies instead of the legacy WAF configuration.</t>
-        </is>
-      </c>
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="21" t="n"/>
+      <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E58" s="21" t="n"/>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="inlineStr">
-        <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
-        </is>
-      </c>
+      <c r="L58" s="25" t="n"/>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B59" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C59" s="21" t="inlineStr">
-        <is>
-          <t>Filter inbound traffic in the backends so that they only accept connections from the Application Gateway subnet, for example with NSGs.</t>
-        </is>
-      </c>
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="21" t="n"/>
+      <c r="C59" s="21" t="n"/>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E59" s="21" t="n"/>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="inlineStr">
-        <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
-        </is>
-      </c>
+      <c r="L59" s="25" t="n"/>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>Front Door</t>
-        </is>
-      </c>
-      <c r="C60" s="21" t="inlineStr">
-        <is>
-          <t>Make sure your origins only take traffic from your Azure Front Door instance.</t>
-        </is>
-      </c>
+      <c r="A60" s="21" t="n"/>
+      <c r="B60" s="21" t="n"/>
+      <c r="C60" s="21" t="n"/>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E60" s="21" t="n"/>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/origin-security?tabs=app-service-functions</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="inlineStr">
-        <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
-        </is>
-      </c>
+      <c r="L60" s="25" t="n"/>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
       <c r="P60" s="25" t="n"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C61" s="21" t="inlineStr">
-        <is>
-          <t>You should encrypt traffic to the backend servers.</t>
-        </is>
-      </c>
+      <c r="A61" s="21" t="n"/>
+      <c r="B61" s="21" t="n"/>
+      <c r="C61" s="21" t="n"/>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E61" s="21" t="n"/>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="25" t="inlineStr">
-        <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
-        </is>
-      </c>
+      <c r="L61" s="25" t="n"/>
       <c r="M61" s="25" t="n"/>
       <c r="N61" s="25" t="n"/>
       <c r="O61" s="25" t="n"/>
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B62" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C62" s="21" t="inlineStr">
-        <is>
-          <t>You should use a Web Application Firewall.</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="n"/>
+      <c r="B62" s="21" t="n"/>
+      <c r="C62" s="21" t="n"/>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E62" s="21" t="n"/>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="25" t="inlineStr">
-        <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
-        </is>
-      </c>
+      <c r="L62" s="25" t="n"/>
       <c r="M62" s="25" t="n"/>
       <c r="N62" s="25" t="n"/>
       <c r="O62" s="25" t="n"/>
       <c r="P62" s="25" t="n"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B63" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C63" s="21" t="inlineStr">
-        <is>
-          <t>Redirect HTTP to HTTPS</t>
-        </is>
-      </c>
+      <c r="A63" s="21" t="n"/>
+      <c r="B63" s="21" t="n"/>
+      <c r="C63" s="21" t="n"/>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E63" s="21" t="n"/>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="25" t="inlineStr">
-        <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
-        </is>
-      </c>
+      <c r="L63" s="25" t="n"/>
       <c r="M63" s="25" t="n"/>
       <c r="N63" s="25" t="n"/>
       <c r="O63" s="25" t="n"/>
       <c r="P63" s="25" t="n"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B64" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C64" s="21" t="inlineStr">
-        <is>
-          <t>Use gateway-managed cookies to direct traffic from a user session to the same server for processing</t>
-        </is>
-      </c>
+      <c r="A64" s="21" t="n"/>
+      <c r="B64" s="21" t="n"/>
+      <c r="C64" s="21" t="n"/>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E64" s="21" t="n"/>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
-      <c r="L64" s="25" t="inlineStr">
-        <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
-        </is>
-      </c>
+      <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
       <c r="N64" s="25" t="n"/>
       <c r="O64" s="25" t="n"/>
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B65" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C65" s="21" t="inlineStr">
-        <is>
-          <t>Enable connection draining during planned service updates to prevent connection loss to existing members of the backend pool</t>
-        </is>
-      </c>
+      <c r="A65" s="21" t="n"/>
+      <c r="B65" s="21" t="n"/>
+      <c r="C65" s="21" t="n"/>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E65" s="21" t="n"/>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="25" t="inlineStr">
-        <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
-        </is>
-      </c>
+      <c r="L65" s="25" t="n"/>
       <c r="M65" s="25" t="n"/>
       <c r="N65" s="25" t="n"/>
       <c r="O65" s="25" t="n"/>
       <c r="P65" s="25" t="n"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B66" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C66" s="21" t="inlineStr">
-        <is>
-          <t>Create custom error pages to display a personalized user experience</t>
-        </is>
-      </c>
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="21" t="n"/>
+      <c r="C66" s="21" t="n"/>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E66" s="21" t="n"/>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="25" t="inlineStr">
-        <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
-        </is>
-      </c>
+      <c r="L66" s="25" t="n"/>
       <c r="M66" s="25" t="n"/>
       <c r="N66" s="25" t="n"/>
       <c r="O66" s="25" t="n"/>
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B67" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C67" s="21" t="inlineStr">
-        <is>
-          <t>Edit HTTP requests and response headers for easier routing and information exchange between the client and server</t>
-        </is>
-      </c>
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="21" t="n"/>
+      <c r="C67" s="21" t="n"/>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E67" s="21" t="n"/>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="25" t="inlineStr">
-        <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
-        </is>
-      </c>
+      <c r="L67" s="25" t="n"/>
       <c r="M67" s="25" t="n"/>
       <c r="N67" s="25" t="n"/>
       <c r="O67" s="25" t="n"/>
       <c r="P67" s="25" t="n"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B68" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C68" s="21" t="inlineStr">
-        <is>
-          <t>Configure Front Door to optimize global web traffic routing and top-tier end-user performance, and reliability through quick global failover</t>
-        </is>
-      </c>
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="21" t="n"/>
+      <c r="C68" s="21" t="n"/>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E68" s="21" t="n"/>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="25" t="inlineStr">
-        <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
-        </is>
-      </c>
+      <c r="L68" s="25" t="n"/>
       <c r="M68" s="25" t="n"/>
       <c r="N68" s="25" t="n"/>
       <c r="O68" s="25" t="n"/>
       <c r="P68" s="25" t="n"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B69" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C69" s="21" t="inlineStr">
-        <is>
-          <t>Use transport layer load balancing</t>
-        </is>
-      </c>
+      <c r="A69" s="21" t="n"/>
+      <c r="B69" s="21" t="n"/>
+      <c r="C69" s="21" t="n"/>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E69" s="21" t="n"/>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="25" t="inlineStr">
-        <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
-        </is>
-      </c>
+      <c r="L69" s="25" t="n"/>
       <c r="M69" s="25" t="n"/>
       <c r="N69" s="25" t="n"/>
       <c r="O69" s="25" t="n"/>
       <c r="P69" s="25" t="n"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B70" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C70" s="21" t="inlineStr">
-        <is>
-          <t>Configure routing based on host or domain name for multiple web applications on a single gateway</t>
-        </is>
-      </c>
+      <c r="A70" s="21" t="n"/>
+      <c r="B70" s="21" t="n"/>
+      <c r="C70" s="21" t="n"/>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E70" s="21" t="n"/>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
-      <c r="L70" s="25" t="inlineStr">
-        <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
-        </is>
-      </c>
+      <c r="L70" s="25" t="n"/>
       <c r="M70" s="25" t="n"/>
       <c r="N70" s="25" t="n"/>
       <c r="O70" s="25" t="n"/>
       <c r="P70" s="25" t="n"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B71" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C71" s="21" t="inlineStr">
-        <is>
-          <t>Centralize SSL certificate management to reduce encryption and decryption overhead from a backend server farm</t>
-        </is>
-      </c>
+      <c r="A71" s="21" t="n"/>
+      <c r="B71" s="21" t="n"/>
+      <c r="C71" s="21" t="n"/>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E71" s="21" t="n"/>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="25" t="inlineStr">
-        <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
-        </is>
-      </c>
+      <c r="L71" s="25" t="n"/>
       <c r="M71" s="25" t="n"/>
       <c r="N71" s="25" t="n"/>
       <c r="O71" s="25" t="n"/>
       <c r="P71" s="25" t="n"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="21" t="inlineStr">
-        <is>
-          <t>Network Topology and Connectivity</t>
-        </is>
-      </c>
-      <c r="B72" s="21" t="inlineStr">
-        <is>
-          <t>App Gateway</t>
-        </is>
-      </c>
-      <c r="C72" s="21" t="inlineStr">
-        <is>
-          <t>Use Application Gateway for native support for WebSocket and HTTP/2 protocols</t>
-        </is>
-      </c>
+      <c r="A72" s="21" t="n"/>
+      <c r="B72" s="21" t="n"/>
+      <c r="C72" s="21" t="n"/>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E72" s="21" t="n"/>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="25" t="inlineStr">
-        <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
-        </is>
-      </c>
+      <c r="L72" s="25" t="n"/>
       <c r="M72" s="25" t="n"/>
       <c r="N72" s="25" t="n"/>
       <c r="O72" s="25" t="n"/>
@@ -7744,7 +7015,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.en.xlsx
@@ -1382,7 +1382,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/tutorial-protect-application-gateway-ddos</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
